--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_3_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699845.698808033</v>
+        <v>1659882.415868839</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>426806.9758914464</v>
+        <v>426806.9758914463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8362709.48847871</v>
+        <v>8362709.488478711</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8083608.937946709</v>
+        <v>8083608.93794671</v>
       </c>
     </row>
     <row r="11">
@@ -658,31 +658,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>52.42556848774752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>135.6111238254436</v>
+        <v>157.5243183694689</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -749,10 +749,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>69.1170502640262</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>80.83011447495538</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.55722408766215</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>231.0262884092281</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>130.4655268502615</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>57.16776090941369</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>65.5944526828373</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>241.0142888776591</v>
@@ -1214,7 +1214,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>121.8668959675859</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1259,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>115.5785074418531</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>24.7554325077908</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1332,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1384,10 +1384,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>326.1924309016296</v>
+        <v>275.3634689174642</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>119.2856259772189</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>65.50479675552441</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,13 +1496,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T12" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U12" t="n">
         <v>225.8957288909827</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>80.79258128802718</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.25280406479386</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>91.70441813272446</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.005789270132</v>
       </c>
       <c r="H14" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T14" t="n">
-        <v>61.44800660352123</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.64958867533</v>
+        <v>43.76331341951682</v>
       </c>
       <c r="H15" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T15" t="n">
-        <v>149.3102327444246</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U15" t="n">
         <v>225.8957288909827</v>
@@ -1770,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>116.0152310063691</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>145.4297492890001</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>65.62782104376186</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>160.4752923549255</v>
+        <v>23.66286459385225</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>179.4658614532381</v>
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1931,16 +1931,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>95.87483792926864</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S18" t="n">
-        <v>65.90747854024187</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T18" t="n">
         <v>197.3677099213027</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>94.18945793067243</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>150.9974633111188</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,10 +2098,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>326.1924309016296</v>
+        <v>72.03762288587251</v>
       </c>
       <c r="I20" t="n">
-        <v>130.9490935685395</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,28 +2128,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S20" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2177,10 +2177,10 @@
         <v>136.64958867533</v>
       </c>
       <c r="H21" t="n">
-        <v>104.4814346654896</v>
+        <v>47.38191319213993</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S21" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U21" t="n">
         <v>225.8957288909827</v>
@@ -2225,7 +2225,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,19 +2250,19 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>70.46372980733771</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>192.943756489048</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>170.0991949343318</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.005789270132</v>
+        <v>7.064314025683926</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2408,13 +2408,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>83.29896986725154</v>
       </c>
       <c r="G24" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>104.4814346654896</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,7 +2450,7 @@
         <v>158.7937537960548</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U24" t="n">
         <v>225.8957288909827</v>
@@ -2481,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>76.86665720829649</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H25" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2538,10 +2538,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>192.7813645628875</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>304.0020547611193</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>187.2771953980856</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>43.76331341951682</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>197.3677099213027</v>
+        <v>149.3102327444246</v>
       </c>
       <c r="U27" t="n">
         <v>225.8957288909827</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>13.08993799274037</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2760,22 +2760,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>146.5623749521073</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2794,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>21.56310479435202</v>
       </c>
       <c r="D29" t="n">
-        <v>292.5283283579306</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>326.1924309016296</v>
@@ -2839,16 +2839,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.4184586216305</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2885,10 +2885,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H30" t="n">
-        <v>43.76331341951682</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>57.07339698405355</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T30" t="n">
-        <v>197.3677099213027</v>
+        <v>161.5548316495433</v>
       </c>
       <c r="U30" t="n">
         <v>225.8957288909827</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>65.18066202671827</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,19 +3003,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>47.47529300550341</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,19 +3031,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3085,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>26.731109272536</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>181.8351224948159</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S33" t="n">
         <v>158.7937537960548</v>
@@ -3204,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.7552559143493</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -3249,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>80.79258128802665</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.532581229333241</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>68.39969274597631</v>
+        <v>26.731109272536</v>
       </c>
       <c r="S35" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>105.5335559456492</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.262864575842432</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>17.44731957864654</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T36" t="n">
         <v>197.3677099213027</v>
@@ -3413,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3429,25 +3429,25 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>18.87204112176278</v>
+        <v>7.474574650667135</v>
       </c>
       <c r="I37" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J37" t="n">
-        <v>52.22830032617343</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.4184586216305</v>
+        <v>118.8603027281921</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>106.944830337067</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>78.51229435769994</v>
       </c>
       <c r="G39" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H39" t="n">
-        <v>73.64690839405425</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,13 +3629,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>57.07339698405355</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S39" t="n">
         <v>158.7937537960548</v>
       </c>
       <c r="T39" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.8957288909827</v>
@@ -3666,13 +3666,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>41.90757898338433</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>47.47529300550337</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>372.8161228924253</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H41" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>160.4752923549255</v>
+        <v>26.73110927253575</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3824,22 +3824,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>52.1829371375707</v>
       </c>
       <c r="G42" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H42" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3881,7 +3881,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>135.2154207685716</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
@@ -3897,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>73.66757925108482</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>53.47796097396609</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,10 +3979,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>48.16687115128889</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>160.4752923549255</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S44" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4036,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>7.064314025683601</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4064,19 +4064,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>38.78966489179808</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>136.64958867533</v>
       </c>
       <c r="H45" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>57.07339698405354</v>
       </c>
       <c r="S45" t="n">
-        <v>158.7937537960548</v>
+        <v>65.90747854024187</v>
       </c>
       <c r="T45" t="n">
         <v>197.3677099213027</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>123.6039762133036</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.5623749521075</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>506.1786963984129</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C2" t="n">
-        <v>506.1786963984129</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>506.1786963984129</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>262.7299197543128</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4357,25 +4357,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="V2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="W2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="X2" t="n">
-        <v>802.5825927271064</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="Y2" t="n">
-        <v>749.627473042513</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.4877027295624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C3" t="n">
-        <v>418.5067695725487</v>
+        <v>703.7721529630483</v>
       </c>
       <c r="D3" t="n">
-        <v>269.5723599112974</v>
+        <v>554.837743301797</v>
       </c>
       <c r="E3" t="n">
-        <v>110.334904905842</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F3" t="n">
-        <v>110.334904905842</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
         <v>110.334904905842</v>
@@ -4412,49 +4412,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>790.6398109613051</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V3" t="n">
-        <v>555.4877027295624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W3" t="n">
-        <v>555.4877027295624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X3" t="n">
-        <v>555.4877027295624</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y3" t="n">
-        <v>555.4877027295624</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4606,13 +4606,13 @@
         <v>348.0024326625565</v>
       </c>
       <c r="W5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="X5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="Y5" t="n">
-        <v>104.5536560184564</v>
+        <v>266.3558523848238</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U6" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="V6" t="n">
-        <v>862.8876260635219</v>
+        <v>461.2466632505798</v>
       </c>
       <c r="W6" t="n">
-        <v>619.4388494194218</v>
+        <v>227.8867759685313</v>
       </c>
       <c r="X6" t="n">
-        <v>411.587349213889</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.827050448935</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
         <v>104.5536560184564</v>
@@ -4792,7 +4792,7 @@
         <v>104.5536560184564</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>97.60815526925295</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4843,13 +4843,13 @@
         <v>591.4512093066566</v>
       </c>
       <c r="W8" t="n">
+        <v>591.4512093066566</v>
+      </c>
+      <c r="X8" t="n">
         <v>348.0024326625565</v>
       </c>
-      <c r="X8" t="n">
-        <v>104.5536560184564</v>
-      </c>
       <c r="Y8" t="n">
-        <v>104.5536560184564</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>521.2549444941228</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C9" t="n">
-        <v>346.8019152129958</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D9" t="n">
-        <v>346.8019152129958</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E9" t="n">
-        <v>346.8019152129958</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F9" t="n">
-        <v>346.8019152129958</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4886,19 +4886,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P9" t="n">
         <v>894.6625969973069</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>689.4702815141908</v>
+        <v>847.3111883976533</v>
       </c>
       <c r="W9" t="n">
-        <v>689.4702815141908</v>
+        <v>603.8624117535533</v>
       </c>
       <c r="X9" t="n">
-        <v>689.4702815141908</v>
+        <v>396.0109115480204</v>
       </c>
       <c r="Y9" t="n">
-        <v>689.4702815141908</v>
+        <v>188.2506127830665</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>66.78106667958005</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>66.78106667958005</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2320.497095338043</v>
+        <v>1482.004526625614</v>
       </c>
       <c r="C11" t="n">
-        <v>1951.534578397632</v>
+        <v>1482.004526625614</v>
       </c>
       <c r="D11" t="n">
-        <v>1593.268879790881</v>
+        <v>1123.738828018864</v>
       </c>
       <c r="E11" t="n">
-        <v>1207.480627192637</v>
+        <v>737.9505754206195</v>
       </c>
       <c r="F11" t="n">
-        <v>796.4947224030295</v>
+        <v>326.964670631012</v>
       </c>
       <c r="G11" t="n">
-        <v>378.3070564736033</v>
+        <v>326.964670631012</v>
       </c>
       <c r="H11" t="n">
         <v>48.81975253256327</v>
@@ -5041,13 +5041,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J11" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K11" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L11" t="n">
-        <v>795.0052981540045</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M11" t="n">
         <v>1237.436361307048</v>
@@ -5071,22 +5071,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T11" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U11" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V11" t="n">
-        <v>2440.987626628164</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W11" t="n">
-        <v>2440.987626628164</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="X11" t="n">
-        <v>2320.497095338043</v>
+        <v>1868.604366689736</v>
       </c>
       <c r="Y11" t="n">
-        <v>2320.497095338043</v>
+        <v>1868.604366689736</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E12" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F12" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G12" t="n">
-        <v>221.5857653620315</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="H12" t="n">
-        <v>114.9862139017798</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="I12" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J12" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K12" t="n">
-        <v>349.2772920404815</v>
+        <v>161.1406371339193</v>
       </c>
       <c r="L12" t="n">
-        <v>728.4044351658748</v>
+        <v>540.2677802593125</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.807150561437</v>
+        <v>1034.670495654875</v>
       </c>
       <c r="N12" t="n">
-        <v>1746.002248079784</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O12" t="n">
-        <v>2127.159342346856</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P12" t="n">
-        <v>2440.987626628164</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q12" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R12" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S12" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T12" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E13" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F13" t="n">
-        <v>568.6656403223806</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G13" t="n">
-        <v>399.5654251458267</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H13" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I13" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J13" t="n">
         <v>48.81975253256327</v>
@@ -5238,13 +5238,13 @@
         <v>640.6381696807582</v>
       </c>
       <c r="W13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="X13" t="n">
-        <v>640.6381696807582</v>
+        <v>351.2209996437976</v>
       </c>
       <c r="Y13" t="n">
-        <v>640.6381696807582</v>
+        <v>130.4284205002675</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1738.539399037014</v>
+        <v>945.4263964468241</v>
       </c>
       <c r="C14" t="n">
-        <v>1369.576882096602</v>
+        <v>945.4263964468241</v>
       </c>
       <c r="D14" t="n">
-        <v>1369.576882096602</v>
+        <v>852.7956710602338</v>
       </c>
       <c r="E14" t="n">
-        <v>1369.576882096602</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="F14" t="n">
-        <v>958.5909773069948</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G14" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H14" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I14" t="n">
         <v>48.81975253256327</v>
@@ -5284,7 +5284,7 @@
         <v>412.3079679977591</v>
       </c>
       <c r="L14" t="n">
-        <v>795.0052981540043</v>
+        <v>795.0052981540048</v>
       </c>
       <c r="M14" t="n">
         <v>1237.436361307048</v>
@@ -5305,25 +5305,25 @@
         <v>2440.987626628164</v>
       </c>
       <c r="S14" t="n">
-        <v>2440.987626628164</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T14" t="n">
-        <v>2378.918933089253</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="U14" t="n">
-        <v>2125.139239101136</v>
+        <v>2040.094374027286</v>
       </c>
       <c r="V14" t="n">
-        <v>2125.139239101136</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="W14" t="n">
-        <v>2125.139239101136</v>
+        <v>1709.031486683716</v>
       </c>
       <c r="X14" t="n">
-        <v>2125.139239101136</v>
+        <v>1335.565728422636</v>
       </c>
       <c r="Y14" t="n">
-        <v>2125.139239101136</v>
+        <v>945.4263964468241</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.7751048338188</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3220755526918</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E15" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F15" t="n">
-        <v>359.6156529128699</v>
+        <v>93.02511962298431</v>
       </c>
       <c r="G15" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H15" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I15" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J15" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K15" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L15" t="n">
-        <v>728.4044351658748</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M15" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N15" t="n">
-        <v>1746.002248079784</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O15" t="n">
-        <v>2158.207869599013</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P15" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q15" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R15" t="n">
-        <v>2440.987626628164</v>
+        <v>2383.337730684675</v>
       </c>
       <c r="S15" t="n">
-        <v>2440.987626628164</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T15" t="n">
-        <v>2290.169209714603</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U15" t="n">
-        <v>2061.991705784318</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.839597552575</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.602240824373</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.750740618841</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y15" t="n">
-        <v>1156.990441853887</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="C16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="D16" t="n">
-        <v>640.6381696807582</v>
+        <v>343.6227936128668</v>
       </c>
       <c r="E16" t="n">
-        <v>523.4510676541228</v>
+        <v>195.7097000304736</v>
       </c>
       <c r="F16" t="n">
-        <v>376.5611201562124</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G16" t="n">
-        <v>207.4609049796586</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H16" t="n">
         <v>48.81975253256327</v>
@@ -5463,25 +5463,25 @@
         <v>640.6381696807582</v>
       </c>
       <c r="S16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="T16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="U16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="V16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="W16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="X16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
       <c r="Y16" t="n">
-        <v>640.6381696807582</v>
+        <v>493.7394330252025</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2190.61837996229</v>
+        <v>1185.738104106103</v>
       </c>
       <c r="C17" t="n">
-        <v>1821.655863021879</v>
+        <v>816.7755871656916</v>
       </c>
       <c r="D17" t="n">
-        <v>1755.365134694847</v>
+        <v>458.5098885589411</v>
       </c>
       <c r="E17" t="n">
-        <v>1369.576882096602</v>
+        <v>72.72163596069686</v>
       </c>
       <c r="F17" t="n">
-        <v>958.5909773069948</v>
+        <v>72.72163596069686</v>
       </c>
       <c r="G17" t="n">
-        <v>540.4033113775685</v>
+        <v>72.72163596069686</v>
       </c>
       <c r="H17" t="n">
-        <v>210.9160074365284</v>
+        <v>72.72163596069686</v>
       </c>
       <c r="I17" t="n">
         <v>48.81975253256327</v>
@@ -5518,10 +5518,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K17" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L17" t="n">
-        <v>795.0052981540044</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M17" t="n">
         <v>1237.436361307048</v>
@@ -5539,28 +5539,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R17" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S17" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="T17" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="U17" t="n">
-        <v>2190.61837996229</v>
+        <v>2259.7089786956</v>
       </c>
       <c r="V17" t="n">
-        <v>2190.61837996229</v>
+        <v>1928.646091352029</v>
       </c>
       <c r="W17" t="n">
-        <v>2190.61837996229</v>
+        <v>1575.877436081915</v>
       </c>
       <c r="X17" t="n">
-        <v>2190.61837996229</v>
+        <v>1575.877436081915</v>
       </c>
       <c r="Y17" t="n">
-        <v>2190.61837996229</v>
+        <v>1185.738104106103</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>816.0090920043505</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C18" t="n">
-        <v>641.5560627232235</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D18" t="n">
-        <v>492.6216530619722</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E18" t="n">
-        <v>333.3841980565167</v>
+        <v>301.9538619659299</v>
       </c>
       <c r="F18" t="n">
-        <v>186.8496400834017</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G18" t="n">
-        <v>48.81975253256327</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H18" t="n">
         <v>48.81975253256327</v>
@@ -5594,25 +5594,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J18" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K18" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L18" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M18" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N18" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O18" t="n">
-        <v>2158.207869599012</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P18" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q18" t="n">
         <v>2440.987626628164</v>
@@ -5621,25 +5621,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S18" t="n">
-        <v>2316.764520037966</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T18" t="n">
-        <v>2117.403196885135</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U18" t="n">
-        <v>1889.225692954849</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V18" t="n">
-        <v>1654.073584723107</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W18" t="n">
-        <v>1399.836227994905</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X18" t="n">
-        <v>1191.984727789372</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y18" t="n">
-        <v>984.2244290244184</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198.936391944899</v>
+        <v>545.4973030841194</v>
       </c>
       <c r="C19" t="n">
-        <v>198.936391944899</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="D19" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="E19" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="F19" t="n">
-        <v>48.81975253256327</v>
+        <v>376.5611201562124</v>
       </c>
       <c r="G19" t="n">
-        <v>48.81975253256327</v>
+        <v>207.4609049796586</v>
       </c>
       <c r="H19" t="n">
         <v>48.81975253256327</v>
@@ -5682,43 +5682,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M19" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N19" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O19" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S19" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T19" t="n">
-        <v>488.1154794675067</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U19" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V19" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W19" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X19" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.936391944899</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="20">
@@ -5728,37 +5728,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>879.5413850994084</v>
+        <v>876.3357977135147</v>
       </c>
       <c r="C20" t="n">
-        <v>510.5788681589967</v>
+        <v>507.373280773103</v>
       </c>
       <c r="D20" t="n">
-        <v>510.5788681589967</v>
+        <v>507.373280773103</v>
       </c>
       <c r="E20" t="n">
-        <v>510.5788681589967</v>
+        <v>121.5850281748587</v>
       </c>
       <c r="F20" t="n">
-        <v>510.5788681589967</v>
+        <v>121.5850281748587</v>
       </c>
       <c r="G20" t="n">
-        <v>510.5788681589967</v>
+        <v>121.5850281748587</v>
       </c>
       <c r="H20" t="n">
-        <v>181.0915642179567</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I20" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J20" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K20" t="n">
         <v>412.307967997759</v>
       </c>
       <c r="L20" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M20" t="n">
         <v>1237.436361307048</v>
@@ -5782,22 +5782,22 @@
         <v>2190.61837996229</v>
       </c>
       <c r="T20" t="n">
-        <v>2190.61837996229</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U20" t="n">
-        <v>1936.838685974173</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="V20" t="n">
-        <v>1605.775798630602</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="W20" t="n">
-        <v>1253.007143360488</v>
+        <v>1639.940887950406</v>
       </c>
       <c r="X20" t="n">
-        <v>879.5413850994084</v>
+        <v>1266.475129689326</v>
       </c>
       <c r="Y20" t="n">
-        <v>879.5413850994084</v>
+        <v>876.3357977135147</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>921.5458946967642</v>
+        <v>930.0360717494659</v>
       </c>
       <c r="C21" t="n">
-        <v>747.0928654156372</v>
+        <v>755.5830424683389</v>
       </c>
       <c r="D21" t="n">
-        <v>598.158455754386</v>
+        <v>606.6486328070877</v>
       </c>
       <c r="E21" t="n">
-        <v>438.9210007489305</v>
+        <v>447.4111778016322</v>
       </c>
       <c r="F21" t="n">
-        <v>292.3864427758155</v>
+        <v>300.8766198285172</v>
       </c>
       <c r="G21" t="n">
-        <v>154.3565552249771</v>
+        <v>162.8467322776788</v>
       </c>
       <c r="H21" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I21" t="n">
         <v>48.81975253256327</v>
@@ -5834,22 +5834,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="K21" t="n">
-        <v>161.1406371339194</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L21" t="n">
-        <v>540.2677802593126</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M21" t="n">
-        <v>1034.670495654875</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N21" t="n">
-        <v>1557.865593173221</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O21" t="n">
-        <v>1970.07121469245</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.899498973758</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q21" t="n">
         <v>2440.987626628164</v>
@@ -5861,22 +5861,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T21" t="n">
-        <v>2222.939999577549</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U21" t="n">
-        <v>1994.762495647263</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V21" t="n">
-        <v>1759.610387415521</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W21" t="n">
-        <v>1505.373030687319</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X21" t="n">
-        <v>1297.521530481786</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="Y21" t="n">
-        <v>1089.761231716832</v>
+        <v>1098.251408769534</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>458.9897048505183</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="C22" t="n">
-        <v>458.9897048505183</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D22" t="n">
-        <v>458.9897048505183</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E22" t="n">
-        <v>458.9897048505183</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F22" t="n">
-        <v>312.0997573526079</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G22" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H22" t="n">
-        <v>240.9242726987314</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I22" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J22" t="n">
         <v>48.81975253256327</v>
@@ -5919,43 +5919,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M22" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N22" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O22" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R22" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S22" t="n">
-        <v>640.638169680758</v>
+        <v>445.7454863584875</v>
       </c>
       <c r="T22" t="n">
-        <v>640.638169680758</v>
+        <v>445.7454863584875</v>
       </c>
       <c r="U22" t="n">
-        <v>640.638169680758</v>
+        <v>445.7454863584875</v>
       </c>
       <c r="V22" t="n">
-        <v>640.638169680758</v>
+        <v>445.7454863584875</v>
       </c>
       <c r="W22" t="n">
-        <v>640.638169680758</v>
+        <v>445.7454863584875</v>
       </c>
       <c r="X22" t="n">
-        <v>640.638169680758</v>
+        <v>217.7559354604702</v>
       </c>
       <c r="Y22" t="n">
-        <v>640.638169680758</v>
+        <v>217.7559354604702</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>997.0904856892771</v>
+        <v>1221.692097593841</v>
       </c>
       <c r="C23" t="n">
-        <v>997.0904856892771</v>
+        <v>852.7295806534291</v>
       </c>
       <c r="D23" t="n">
-        <v>638.8247870825267</v>
+        <v>852.7295806534291</v>
       </c>
       <c r="E23" t="n">
-        <v>638.8247870825267</v>
+        <v>466.9413280551849</v>
       </c>
       <c r="F23" t="n">
-        <v>467.0074184619895</v>
+        <v>55.95542326557734</v>
       </c>
       <c r="G23" t="n">
         <v>48.81975253256327</v>
@@ -6013,28 +6013,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="S23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U23" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V23" t="n">
-        <v>2109.924739284593</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="W23" t="n">
-        <v>1757.156084014479</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="X23" t="n">
-        <v>1383.690325753399</v>
+        <v>1998.431269633774</v>
       </c>
       <c r="Y23" t="n">
-        <v>1383.690325753399</v>
+        <v>1608.291937657963</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>921.5458946967642</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C24" t="n">
-        <v>747.0928654156372</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D24" t="n">
-        <v>598.158455754386</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E24" t="n">
-        <v>438.9210007489305</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F24" t="n">
-        <v>292.3864427758155</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="G24" t="n">
-        <v>154.3565552249771</v>
+        <v>155.4193039928149</v>
       </c>
       <c r="H24" t="n">
         <v>48.81975253256327</v>
@@ -6068,22 +6068,22 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J24" t="n">
-        <v>112.9860412505444</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K24" t="n">
-        <v>349.2772920404815</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L24" t="n">
-        <v>728.4044351658748</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M24" t="n">
-        <v>1222.807150561437</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N24" t="n">
-        <v>1746.002248079784</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O24" t="n">
-        <v>2158.207869599013</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P24" t="n">
         <v>2440.987626628164</v>
@@ -6098,22 +6098,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T24" t="n">
-        <v>2222.939999577549</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U24" t="n">
-        <v>1994.762495647263</v>
+        <v>1795.401172494432</v>
       </c>
       <c r="V24" t="n">
-        <v>1759.610387415521</v>
+        <v>1560.249064262689</v>
       </c>
       <c r="W24" t="n">
-        <v>1505.373030687319</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X24" t="n">
-        <v>1297.521530481786</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y24" t="n">
-        <v>1089.761231716832</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>487.9764913965093</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C25" t="n">
-        <v>487.9764913965093</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D25" t="n">
-        <v>337.8598519841736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E25" t="n">
-        <v>337.8598519841736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F25" t="n">
-        <v>337.8598519841736</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G25" t="n">
-        <v>260.2167638949852</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H25" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I25" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J25" t="n">
         <v>48.81975253256327</v>
@@ -6171,28 +6171,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V25" t="n">
-        <v>487.9764913965093</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W25" t="n">
-        <v>487.9764913965093</v>
+        <v>445.9095186071345</v>
       </c>
       <c r="X25" t="n">
-        <v>487.9764913965093</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y25" t="n">
-        <v>487.9764913965093</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>417.782269472975</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="C26" t="n">
-        <v>48.81975253256327</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="D26" t="n">
-        <v>48.81975253256327</v>
+        <v>1071.168091658837</v>
       </c>
       <c r="E26" t="n">
-        <v>48.81975253256327</v>
+        <v>685.3798390605925</v>
       </c>
       <c r="F26" t="n">
-        <v>48.81975253256327</v>
+        <v>685.3798390605925</v>
       </c>
       <c r="G26" t="n">
-        <v>48.81975253256327</v>
+        <v>378.3070564736033</v>
       </c>
       <c r="H26" t="n">
         <v>48.81975253256327</v>
@@ -6226,13 +6226,13 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J26" t="n">
-        <v>145.9660485697318</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K26" t="n">
         <v>412.3079679977591</v>
       </c>
       <c r="L26" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540043</v>
       </c>
       <c r="M26" t="n">
         <v>1237.436361307048</v>
@@ -6256,22 +6256,22 @@
         <v>2440.987626628164</v>
       </c>
       <c r="T26" t="n">
-        <v>2251.818742387673</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="U26" t="n">
-        <v>2251.818742387673</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="V26" t="n">
-        <v>1920.755855044102</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="W26" t="n">
-        <v>1567.987199773988</v>
+        <v>2221.37302195985</v>
       </c>
       <c r="X26" t="n">
-        <v>1194.521441512908</v>
+        <v>1847.90726369877</v>
       </c>
       <c r="Y26" t="n">
-        <v>804.3821095370968</v>
+        <v>1457.767931722959</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>722.1845715439331</v>
+        <v>988.7751048338188</v>
       </c>
       <c r="C27" t="n">
-        <v>547.7315422628061</v>
+        <v>814.3220755526918</v>
       </c>
       <c r="D27" t="n">
-        <v>398.7971326015548</v>
+        <v>665.3876658914405</v>
       </c>
       <c r="E27" t="n">
-        <v>239.5596775960993</v>
+        <v>506.150210885985</v>
       </c>
       <c r="F27" t="n">
-        <v>93.02511962298431</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G27" t="n">
-        <v>48.81975253256327</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H27" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I27" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J27" t="n">
-        <v>112.9860412505444</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K27" t="n">
-        <v>349.2772920404815</v>
+        <v>285.1110033225004</v>
       </c>
       <c r="L27" t="n">
-        <v>728.4044351658747</v>
+        <v>664.2381464478937</v>
       </c>
       <c r="M27" t="n">
-        <v>1222.807150561437</v>
+        <v>1158.640861843456</v>
       </c>
       <c r="N27" t="n">
-        <v>1746.002248079783</v>
+        <v>1681.835959361802</v>
       </c>
       <c r="O27" t="n">
-        <v>2127.159342346856</v>
+        <v>2094.041580881031</v>
       </c>
       <c r="P27" t="n">
-        <v>2440.987626628164</v>
+        <v>2407.869865162339</v>
       </c>
       <c r="Q27" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R27" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S27" t="n">
-        <v>2222.939999577549</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T27" t="n">
-        <v>2023.578676424718</v>
+        <v>2290.169209714603</v>
       </c>
       <c r="U27" t="n">
-        <v>1795.401172494432</v>
+        <v>2061.991705784318</v>
       </c>
       <c r="V27" t="n">
-        <v>1560.249064262689</v>
+        <v>1826.839597552575</v>
       </c>
       <c r="W27" t="n">
-        <v>1306.011707534488</v>
+        <v>1572.602240824373</v>
       </c>
       <c r="X27" t="n">
-        <v>1098.160207328955</v>
+        <v>1364.750740618841</v>
       </c>
       <c r="Y27" t="n">
-        <v>890.3999085640012</v>
+        <v>1156.990441853887</v>
       </c>
     </row>
     <row r="28">
@@ -6393,43 +6393,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M28" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N28" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O28" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q28" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R28" t="n">
-        <v>492.5953666988314</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S28" t="n">
-        <v>276.5569854093848</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T28" t="n">
-        <v>48.81975253256327</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U28" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V28" t="n">
-        <v>48.81975253256327</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="W28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="X28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
       <c r="Y28" t="n">
-        <v>48.81975253256327</v>
+        <v>62.04191212118991</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2050.848294652352</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="C29" t="n">
-        <v>2050.848294652352</v>
+        <v>1695.443167372171</v>
       </c>
       <c r="D29" t="n">
-        <v>1755.365134694847</v>
+        <v>1337.17746876542</v>
       </c>
       <c r="E29" t="n">
-        <v>1369.576882096602</v>
+        <v>951.3892161671761</v>
       </c>
       <c r="F29" t="n">
-        <v>958.5909773069948</v>
+        <v>540.4033113775685</v>
       </c>
       <c r="G29" t="n">
         <v>540.4033113775685</v>
@@ -6463,10 +6463,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J29" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K29" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L29" t="n">
         <v>795.0052981540045</v>
@@ -6487,28 +6487,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R29" t="n">
-        <v>2440.987626628164</v>
+        <v>2371.897027894855</v>
       </c>
       <c r="S29" t="n">
-        <v>2440.987626628164</v>
+        <v>2190.618379962291</v>
       </c>
       <c r="T29" t="n">
-        <v>2440.987626628164</v>
+        <v>1971.003775293977</v>
       </c>
       <c r="U29" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="V29" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="W29" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="X29" t="n">
-        <v>2440.987626628164</v>
+        <v>1717.22408130586</v>
       </c>
       <c r="Y29" t="n">
-        <v>2050.848294652352</v>
+        <v>1717.22408130586</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C30" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D30" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E30" t="n">
-        <v>239.5596775960993</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F30" t="n">
-        <v>93.02511962298431</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G30" t="n">
-        <v>93.02511962298431</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H30" t="n">
         <v>48.81975253256327</v>
@@ -6542,52 +6542,52 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J30" t="n">
-        <v>48.81975253256327</v>
+        <v>81.93751399838814</v>
       </c>
       <c r="K30" t="n">
-        <v>285.1110033225003</v>
+        <v>318.2287647883252</v>
       </c>
       <c r="L30" t="n">
-        <v>664.2381464478935</v>
+        <v>697.3559079137185</v>
       </c>
       <c r="M30" t="n">
-        <v>1158.640861843456</v>
+        <v>1191.758623309281</v>
       </c>
       <c r="N30" t="n">
-        <v>1681.835959361802</v>
+        <v>1714.953720827627</v>
       </c>
       <c r="O30" t="n">
-        <v>2094.041580881031</v>
+        <v>2127.159342346856</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.869865162339</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="Q30" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R30" t="n">
-        <v>2383.337730684675</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S30" t="n">
-        <v>2222.939999577549</v>
+        <v>2280.589895521037</v>
       </c>
       <c r="T30" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U30" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V30" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W30" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X30" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y30" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G31" t="n">
-        <v>346.8095662305</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H31" t="n">
-        <v>188.1684137834047</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I31" t="n">
         <v>48.81975253256327</v>
@@ -6630,43 +6630,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M31" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N31" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O31" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S31" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T31" t="n">
-        <v>640.638169680758</v>
+        <v>592.6833282610578</v>
       </c>
       <c r="U31" t="n">
-        <v>640.638169680758</v>
+        <v>303.5042407384502</v>
       </c>
       <c r="V31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W31" t="n">
-        <v>640.638169680758</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y31" t="n">
-        <v>412.6486187827406</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>776.0479680797255</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C32" t="n">
-        <v>407.0854511393138</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D32" t="n">
-        <v>48.81975253256327</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E32" t="n">
-        <v>48.81975253256327</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F32" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G32" t="n">
         <v>48.81975253256327</v>
@@ -6700,10 +6700,10 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J32" t="n">
-        <v>145.9660485697319</v>
+        <v>145.966048569732</v>
       </c>
       <c r="K32" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L32" t="n">
         <v>795.0052981540045</v>
@@ -6733,19 +6733,19 @@
         <v>2440.987626628164</v>
       </c>
       <c r="U32" t="n">
-        <v>2440.987626628164</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V32" t="n">
-        <v>2109.924739284593</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W32" t="n">
-        <v>1926.252898380739</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X32" t="n">
-        <v>1552.787140119659</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y32" t="n">
-        <v>1162.647808143847</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>48.81975253256327</v>
       </c>
       <c r="J33" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K33" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L33" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M33" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N33" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O33" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q33" t="n">
         <v>2440.987626628164</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="C34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="D34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="E34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="F34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="G34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
       <c r="H34" t="n">
-        <v>1849.169209479969</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="J34" t="n">
-        <v>1849.169209479969</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="K34" t="n">
-        <v>1894.037176271118</v>
+        <v>93.687719323712</v>
       </c>
       <c r="L34" t="n">
-        <v>2006.979160866446</v>
+        <v>206.6297039190408</v>
       </c>
       <c r="M34" t="n">
-        <v>2136.449771081981</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N34" t="n">
-        <v>2268.276475989487</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O34" t="n">
-        <v>2374.023479227556</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q34" t="n">
-        <v>2440.987626628164</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R34" t="n">
-        <v>2440.987626628164</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S34" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8095662305</v>
       </c>
       <c r="T34" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8095662305</v>
       </c>
       <c r="U34" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8095662305</v>
       </c>
       <c r="V34" t="n">
-        <v>2440.987626628164</v>
+        <v>346.8095662305</v>
       </c>
       <c r="W34" t="n">
-        <v>2151.570456591203</v>
+        <v>346.8095662305</v>
       </c>
       <c r="X34" t="n">
-        <v>2069.961788623499</v>
+        <v>346.8095662305</v>
       </c>
       <c r="Y34" t="n">
-        <v>1849.169209479969</v>
+        <v>346.8095662305</v>
       </c>
     </row>
     <row r="35">
@@ -6913,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>879.5413850994084</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="C35" t="n">
-        <v>879.5413850994084</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="D35" t="n">
-        <v>879.5413850994084</v>
+        <v>1263.781575849841</v>
       </c>
       <c r="E35" t="n">
-        <v>879.5413850994084</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F35" t="n">
-        <v>468.5554803098009</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G35" t="n">
-        <v>50.36781438037463</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="H35" t="n">
-        <v>50.36781438037463</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="I35" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J35" t="n">
-        <v>145.966048569732</v>
+        <v>145.9660485697318</v>
       </c>
       <c r="K35" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977593</v>
       </c>
       <c r="L35" t="n">
-        <v>795.0052981540045</v>
+        <v>795.005298154005</v>
       </c>
       <c r="M35" t="n">
-        <v>1237.436361307048</v>
+        <v>1237.436361307049</v>
       </c>
       <c r="N35" t="n">
         <v>1672.394424063531</v>
@@ -6955,34 +6955,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P35" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q35" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R35" t="n">
-        <v>2371.897027894854</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="S35" t="n">
-        <v>2190.61837996229</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="T35" t="n">
-        <v>2190.61837996229</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="U35" t="n">
-        <v>1936.838685974173</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="V35" t="n">
-        <v>1605.775798630602</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="W35" t="n">
-        <v>1253.007143360488</v>
+        <v>2413.986506150855</v>
       </c>
       <c r="X35" t="n">
-        <v>879.5413850994084</v>
+        <v>2040.520747889775</v>
       </c>
       <c r="Y35" t="n">
-        <v>879.5413850994084</v>
+        <v>1650.381415913963</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>922.6086434646021</v>
+        <v>929.9448703088874</v>
       </c>
       <c r="C36" t="n">
-        <v>748.1556141834751</v>
+        <v>755.4918410277604</v>
       </c>
       <c r="D36" t="n">
-        <v>599.2212045222238</v>
+        <v>606.5574313665091</v>
       </c>
       <c r="E36" t="n">
-        <v>439.9837495167684</v>
+        <v>447.3199763610536</v>
       </c>
       <c r="F36" t="n">
-        <v>293.4491915436533</v>
+        <v>300.7854183879386</v>
       </c>
       <c r="G36" t="n">
-        <v>155.4193039928149</v>
+        <v>162.7555308371003</v>
       </c>
       <c r="H36" t="n">
-        <v>48.81975253256327</v>
+        <v>56.15597937684856</v>
       </c>
       <c r="I36" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J36" t="n">
         <v>112.9860412505444</v>
@@ -7022,10 +7022,10 @@
         <v>349.2772920404815</v>
       </c>
       <c r="L36" t="n">
-        <v>728.4044351658747</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M36" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N36" t="n">
         <v>1557.865593173221</v>
@@ -7040,28 +7040,28 @@
         <v>2440.987626628164</v>
       </c>
       <c r="R36" t="n">
-        <v>2423.364071498218</v>
+        <v>2383.337730684676</v>
       </c>
       <c r="S36" t="n">
-        <v>2423.364071498218</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="T36" t="n">
-        <v>2224.002748345386</v>
+        <v>2023.578676424718</v>
       </c>
       <c r="U36" t="n">
-        <v>1995.825244415101</v>
+        <v>1795.401172494433</v>
       </c>
       <c r="V36" t="n">
-        <v>1760.673136183358</v>
+        <v>1560.24906426269</v>
       </c>
       <c r="W36" t="n">
-        <v>1506.435779455157</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X36" t="n">
-        <v>1298.584279249624</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y36" t="n">
-        <v>1090.82398048467</v>
+        <v>1098.160207328955</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>259.9869404984918</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="C37" t="n">
-        <v>259.9869404984918</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="D37" t="n">
-        <v>259.9869404984918</v>
+        <v>490.5215302684225</v>
       </c>
       <c r="E37" t="n">
-        <v>259.9869404984918</v>
+        <v>342.6084366860293</v>
       </c>
       <c r="F37" t="n">
-        <v>259.9869404984918</v>
+        <v>195.718489188119</v>
       </c>
       <c r="G37" t="n">
-        <v>259.9869404984918</v>
+        <v>195.718489188119</v>
       </c>
       <c r="H37" t="n">
-        <v>240.9242726987314</v>
+        <v>188.1684137834047</v>
       </c>
       <c r="I37" t="n">
-        <v>101.57561144789</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="J37" t="n">
-        <v>48.81975253256327</v>
+        <v>48.81975253256328</v>
       </c>
       <c r="K37" t="n">
-        <v>93.687719323712</v>
+        <v>93.68771932371202</v>
       </c>
       <c r="L37" t="n">
         <v>206.6297039190408</v>
       </c>
       <c r="M37" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N37" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O37" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q37" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="V37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="W37" t="n">
-        <v>487.9764913965091</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="X37" t="n">
-        <v>259.9869404984918</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Y37" t="n">
-        <v>259.9869404984918</v>
+        <v>640.6381696807582</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>845.5939099204151</v>
+        <v>1246.955840192009</v>
       </c>
       <c r="C38" t="n">
-        <v>845.5939099204151</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="D38" t="n">
-        <v>845.5939099204151</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="E38" t="n">
-        <v>459.8056573221708</v>
+        <v>877.9933232515971</v>
       </c>
       <c r="F38" t="n">
-        <v>48.81975253256327</v>
+        <v>467.0074184619895</v>
       </c>
       <c r="G38" t="n">
         <v>48.81975253256327</v>
@@ -7177,10 +7177,10 @@
         <v>145.966048569732</v>
       </c>
       <c r="K38" t="n">
-        <v>412.307967997759</v>
+        <v>412.3079679977591</v>
       </c>
       <c r="L38" t="n">
-        <v>795.0052981540048</v>
+        <v>795.0052981540045</v>
       </c>
       <c r="M38" t="n">
         <v>1237.436361307048</v>
@@ -7192,34 +7192,34 @@
         <v>2037.925350935285</v>
       </c>
       <c r="P38" t="n">
-        <v>2312.223157255914</v>
+        <v>2312.223157255915</v>
       </c>
       <c r="Q38" t="n">
         <v>2440.987626628164</v>
       </c>
       <c r="R38" t="n">
-        <v>2371.897027894854</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="S38" t="n">
-        <v>2190.61837996229</v>
+        <v>2440.987626628164</v>
       </c>
       <c r="T38" t="n">
-        <v>1971.003775293977</v>
+        <v>2320.926714781505</v>
       </c>
       <c r="U38" t="n">
-        <v>1717.224081305859</v>
+        <v>2320.926714781505</v>
       </c>
       <c r="V38" t="n">
-        <v>1609.199000157307</v>
+        <v>1989.863827437935</v>
       </c>
       <c r="W38" t="n">
-        <v>1609.199000157307</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="X38" t="n">
-        <v>1235.733241896227</v>
+        <v>1637.09517216782</v>
       </c>
       <c r="Y38" t="n">
-        <v>845.5939099204151</v>
+        <v>1246.955840192009</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>890.3999085640012</v>
+        <v>921.5458946967642</v>
       </c>
       <c r="C39" t="n">
-        <v>715.9468792828742</v>
+        <v>747.0928654156372</v>
       </c>
       <c r="D39" t="n">
-        <v>567.0124696216229</v>
+        <v>598.158455754386</v>
       </c>
       <c r="E39" t="n">
-        <v>407.7750146161674</v>
+        <v>438.9210007489305</v>
       </c>
       <c r="F39" t="n">
-        <v>261.2404566430524</v>
+        <v>359.6156529128699</v>
       </c>
       <c r="G39" t="n">
-        <v>123.210569092214</v>
+        <v>221.5857653620315</v>
       </c>
       <c r="H39" t="n">
-        <v>48.81975253256327</v>
+        <v>114.9862139017798</v>
       </c>
       <c r="I39" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J39" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K39" t="n">
-        <v>285.1110033225003</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L39" t="n">
-        <v>664.2381464478935</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M39" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N39" t="n">
-        <v>1681.835959361802</v>
+        <v>1746.002248079784</v>
       </c>
       <c r="O39" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P39" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q39" t="n">
         <v>2440.987626628164</v>
@@ -7283,22 +7283,22 @@
         <v>2222.939999577549</v>
       </c>
       <c r="T39" t="n">
-        <v>2023.578676424718</v>
+        <v>2222.939999577549</v>
       </c>
       <c r="U39" t="n">
-        <v>1795.401172494432</v>
+        <v>1994.762495647263</v>
       </c>
       <c r="V39" t="n">
-        <v>1560.249064262689</v>
+        <v>1759.610387415521</v>
       </c>
       <c r="W39" t="n">
-        <v>1306.011707534488</v>
+        <v>1505.373030687319</v>
       </c>
       <c r="X39" t="n">
-        <v>1098.160207328955</v>
+        <v>1297.521530481786</v>
       </c>
       <c r="Y39" t="n">
-        <v>890.3999085640012</v>
+        <v>1089.761231716832</v>
       </c>
     </row>
     <row r="40">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C40" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D40" t="n">
-        <v>343.6227936128668</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E40" t="n">
-        <v>195.7097000304736</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F40" t="n">
         <v>48.81975253256327</v>
@@ -7341,43 +7341,43 @@
         <v>206.6297039190408</v>
       </c>
       <c r="M40" t="n">
-        <v>336.1003141345758</v>
+        <v>336.1003141345759</v>
       </c>
       <c r="N40" t="n">
-        <v>467.9270190420812</v>
+        <v>467.9270190420813</v>
       </c>
       <c r="O40" t="n">
-        <v>573.674022280151</v>
+        <v>573.6740222801511</v>
       </c>
       <c r="P40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="Q40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="R40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="S40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="T40" t="n">
-        <v>640.638169680758</v>
+        <v>640.6381696807582</v>
       </c>
       <c r="U40" t="n">
-        <v>640.638169680758</v>
+        <v>351.4590821581505</v>
       </c>
       <c r="V40" t="n">
-        <v>385.9536814748711</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="W40" t="n">
-        <v>385.9536814748711</v>
+        <v>96.77459395226364</v>
       </c>
       <c r="X40" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y40" t="n">
-        <v>385.9536814748711</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2440.987626628164</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="C41" t="n">
-        <v>2072.025109687752</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="D41" t="n">
-        <v>1713.759411081001</v>
+        <v>1290.78269632715</v>
       </c>
       <c r="E41" t="n">
-        <v>1327.971158482757</v>
+        <v>904.9944437289059</v>
       </c>
       <c r="F41" t="n">
-        <v>916.9852536931496</v>
+        <v>494.0085389392984</v>
       </c>
       <c r="G41" t="n">
-        <v>540.4033113775685</v>
+        <v>75.82087300987212</v>
       </c>
       <c r="H41" t="n">
-        <v>210.9160074365284</v>
+        <v>75.82087300987212</v>
       </c>
       <c r="I41" t="n">
         <v>48.81975253256327</v>
@@ -7453,10 +7453,10 @@
         <v>2440.987626628164</v>
       </c>
       <c r="X41" t="n">
-        <v>2440.987626628164</v>
+        <v>2067.521868367084</v>
       </c>
       <c r="Y41" t="n">
-        <v>2440.987626628164</v>
+        <v>1677.382536391272</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>839.8406951725675</v>
+        <v>722.1845715439331</v>
       </c>
       <c r="C42" t="n">
-        <v>665.3876658914405</v>
+        <v>547.7315422628061</v>
       </c>
       <c r="D42" t="n">
-        <v>665.3876658914405</v>
+        <v>398.7971326015548</v>
       </c>
       <c r="E42" t="n">
-        <v>506.150210885985</v>
+        <v>239.5596775960993</v>
       </c>
       <c r="F42" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G42" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H42" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I42" t="n">
         <v>48.81975253256327</v>
       </c>
       <c r="J42" t="n">
-        <v>48.81975253256327</v>
+        <v>112.9860412505444</v>
       </c>
       <c r="K42" t="n">
-        <v>285.1110033225004</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L42" t="n">
-        <v>664.2381464478937</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M42" t="n">
-        <v>1158.640861843456</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N42" t="n">
-        <v>1681.835959361802</v>
+        <v>1557.865593173221</v>
       </c>
       <c r="O42" t="n">
-        <v>2094.041580881031</v>
+        <v>1970.07121469245</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.869865162339</v>
+        <v>2283.899498973758</v>
       </c>
       <c r="Q42" t="n">
         <v>2440.987626628164</v>
@@ -7529,13 +7529,13 @@
         <v>1560.249064262689</v>
       </c>
       <c r="W42" t="n">
-        <v>1423.667831163122</v>
+        <v>1306.011707534488</v>
       </c>
       <c r="X42" t="n">
-        <v>1215.816330957589</v>
+        <v>1098.160207328955</v>
       </c>
       <c r="Y42" t="n">
-        <v>1008.056032192635</v>
+        <v>890.3999085640012</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="C43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="D43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="E43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="F43" t="n">
-        <v>48.81975253256327</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="G43" t="n">
         <v>48.81975253256327</v>
@@ -7593,28 +7593,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R43" t="n">
-        <v>640.6381696807582</v>
+        <v>487.9764913965093</v>
       </c>
       <c r="S43" t="n">
-        <v>640.6381696807582</v>
+        <v>271.9381101070627</v>
       </c>
       <c r="T43" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="U43" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="V43" t="n">
-        <v>640.6381696807582</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="W43" t="n">
-        <v>351.2209996437976</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="X43" t="n">
-        <v>123.2314487457803</v>
+        <v>217.9199677091171</v>
       </c>
       <c r="Y43" t="n">
-        <v>123.2314487457803</v>
+        <v>217.9199677091171</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1804.018539898169</v>
+        <v>1214.556426860827</v>
       </c>
       <c r="C44" t="n">
-        <v>1804.018539898169</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="D44" t="n">
-        <v>1755.365134694847</v>
+        <v>845.5939099204151</v>
       </c>
       <c r="E44" t="n">
-        <v>1369.576882096602</v>
+        <v>459.8056573221708</v>
       </c>
       <c r="F44" t="n">
-        <v>958.5909773069948</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="G44" t="n">
-        <v>540.4033113775685</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H44" t="n">
-        <v>210.9160074365284</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I44" t="n">
         <v>48.81975253256327</v>
@@ -7675,25 +7675,25 @@
         <v>2371.897027894854</v>
       </c>
       <c r="S44" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="T44" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="U44" t="n">
-        <v>2190.61837996229</v>
+        <v>2371.897027894854</v>
       </c>
       <c r="V44" t="n">
-        <v>2190.61837996229</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="W44" t="n">
-        <v>2190.61837996229</v>
+        <v>2364.76135716184</v>
       </c>
       <c r="X44" t="n">
-        <v>2190.61837996229</v>
+        <v>1991.29559890076</v>
       </c>
       <c r="Y44" t="n">
-        <v>2190.61837996229</v>
+        <v>1601.156266924949</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>722.1845715439331</v>
+        <v>816.0090920043505</v>
       </c>
       <c r="C45" t="n">
-        <v>547.7315422628061</v>
+        <v>641.5560627232235</v>
       </c>
       <c r="D45" t="n">
-        <v>398.7971326015548</v>
+        <v>492.6216530619722</v>
       </c>
       <c r="E45" t="n">
-        <v>359.6156529128699</v>
+        <v>333.3841980565167</v>
       </c>
       <c r="F45" t="n">
-        <v>359.6156529128699</v>
+        <v>186.8496400834017</v>
       </c>
       <c r="G45" t="n">
-        <v>221.5857653620315</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="H45" t="n">
-        <v>114.9862139017798</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="I45" t="n">
         <v>48.81975253256327</v>
@@ -7730,13 +7730,13 @@
         <v>112.9860412505444</v>
       </c>
       <c r="K45" t="n">
-        <v>161.1406371339193</v>
+        <v>349.2772920404815</v>
       </c>
       <c r="L45" t="n">
-        <v>540.2677802593125</v>
+        <v>728.4044351658748</v>
       </c>
       <c r="M45" t="n">
-        <v>1034.670495654875</v>
+        <v>1222.807150561437</v>
       </c>
       <c r="N45" t="n">
         <v>1557.865593173221</v>
@@ -7754,25 +7754,25 @@
         <v>2383.337730684675</v>
       </c>
       <c r="S45" t="n">
-        <v>2222.939999577549</v>
+        <v>2316.764520037966</v>
       </c>
       <c r="T45" t="n">
-        <v>2023.578676424718</v>
+        <v>2117.403196885135</v>
       </c>
       <c r="U45" t="n">
-        <v>1795.401172494432</v>
+        <v>1889.225692954849</v>
       </c>
       <c r="V45" t="n">
-        <v>1560.249064262689</v>
+        <v>1654.073584723107</v>
       </c>
       <c r="W45" t="n">
-        <v>1306.011707534488</v>
+        <v>1399.836227994905</v>
       </c>
       <c r="X45" t="n">
-        <v>1098.160207328955</v>
+        <v>1191.984727789372</v>
       </c>
       <c r="Y45" t="n">
-        <v>890.3999085640012</v>
+        <v>984.2244290244184</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="C46" t="n">
-        <v>471.7019867528513</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="D46" t="n">
-        <v>321.5853473405156</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="E46" t="n">
-        <v>173.6722537581225</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="F46" t="n">
         <v>48.81975253256327</v>
@@ -7830,28 +7830,28 @@
         <v>640.6381696807582</v>
       </c>
       <c r="R46" t="n">
-        <v>640.6381696807582</v>
+        <v>492.5953666988314</v>
       </c>
       <c r="S46" t="n">
-        <v>640.6381696807582</v>
+        <v>276.5569854093848</v>
       </c>
       <c r="T46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="U46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="V46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="W46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="X46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
       <c r="Y46" t="n">
-        <v>640.6381696807582</v>
+        <v>48.81975253256327</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8078,7 +8078,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,16 +8306,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,22 +8534,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>139.2426449029007</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8783,13 +8783,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>362.5001705371775</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>51.40241131725695</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>51.40241131725695</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
@@ -9260,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>287.1006199003857</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>61.27660229194304</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K21" t="n">
-        <v>139.2426449029008</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9734,7 +9734,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>287.1006199003852</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>51.40241131725695</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>61.27660229194302</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
@@ -9968,13 +9968,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>362.5001705371781</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>51.40241131725696</v>
+        <v>84.85469562617106</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>61.27660229194304</v>
+        <v>94.72888660085704</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>84.85469562617106</v>
+        <v>51.40241131725695</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10439,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10673,10 +10673,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>275.6680385918564</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>61.27660229194304</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>203.8252941185856</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>61.27660229194302</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>84.85469562617106</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>74.42821185443489</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>289.3053491854098</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>50.82896198416535</v>
       </c>
       <c r="I11" t="n">
         <v>160.4752923549255</v>
@@ -23311,7 +23311,7 @@
         <v>179.4658614532381</v>
       </c>
       <c r="T11" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.2418970482362</v>
@@ -23320,10 +23320,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>250.4454747012501</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23351,13 +23351,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>21.74148333600759</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,13 +23384,13 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>99.03939889391012</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>74.16824395813738</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>262.9786234879585</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>68.3996927459763</v>
       </c>
       <c r="S14" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>155.9704520181092</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23588,13 +23588,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>57.07339698405354</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>48.05747717687808</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23658,19 +23658,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>30.41873164020009</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I16" t="n">
         <v>137.955174638333</v>
@@ -23703,7 +23703,7 @@
         <v>151.1350615014064</v>
       </c>
       <c r="S16" t="n">
-        <v>213.8779974765521</v>
+        <v>68.448248187552</v>
       </c>
       <c r="T16" t="n">
         <v>225.4598605480533</v>
@@ -23737,22 +23737,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>289.0552205769211</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.8124277610733</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,7 +23779,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -23791,16 +23791,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23819,16 +23819,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>61.77024252613231</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H18" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>65.50479675552441</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>92.8862752558129</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>85.64252225126486</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>137.955174638333</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R19" t="n">
         <v>151.1350615014064</v>
@@ -23943,10 +23943,10 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T19" t="n">
-        <v>74.46239723693452</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2872966473816</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23977,7 +23977,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -23986,10 +23986,10 @@
         <v>414.005789270132</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>254.1548080157571</v>
       </c>
       <c r="I20" t="n">
-        <v>29.52619878638598</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,22 +24022,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24065,10 +24065,10 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1.052121280159525</v>
+        <v>58.15164275350924</v>
       </c>
       <c r="I21" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24101,7 +24101,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,7 +24113,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,19 +24138,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>96.94548321745062</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H22" t="n">
         <v>157.0547409226243</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,13 +24171,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R22" t="n">
         <v>151.1350615014064</v>
       </c>
       <c r="S22" t="n">
-        <v>213.8779974765521</v>
+        <v>20.93424098750418</v>
       </c>
       <c r="T22" t="n">
         <v>225.4598605480533</v>
@@ -24192,7 +24192,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24208,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>236.7768508073797</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>406.941475244448</v>
       </c>
       <c r="H23" t="n">
         <v>326.1924309016296</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>68.3996927459763</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>179.4658614532381</v>
@@ -24265,16 +24265,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24296,13 +24296,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>61.77024252613234</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>136.64958867533</v>
       </c>
       <c r="H24" t="n">
-        <v>1.052121280159525</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>65.50479675552441</v>
@@ -24338,7 +24338,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>197.3677099213027</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>90.54255581649184</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I25" t="n">
         <v>137.955174638333</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S25" t="n">
         <v>213.8779974765521</v>
@@ -24426,10 +24426,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>93.74163377370354</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.005789270132</v>
+        <v>110.0037345090126</v>
       </c>
       <c r="H26" t="n">
-        <v>326.1924309016296</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>160.4752923549255</v>
@@ -24490,22 +24490,22 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S26" t="n">
         <v>179.4658614532381</v>
       </c>
       <c r="T26" t="n">
-        <v>30.14126322354483</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>251.2418970482362</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>92.88627525581317</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>105.5335559456492</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>158.7937537960548</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>48.05747717687808</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>166.7420421891969</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24645,25 +24645,25 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R28" t="n">
-        <v>4.572686549299078</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>213.8779974765521</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>225.4598605480533</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24682,10 +24682,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>343.7097869766556</v>
       </c>
       <c r="D29" t="n">
-        <v>62.15471326275235</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24727,16 +24727,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>68.39969274597631</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>179.4658614532381</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>217.4184586216305</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2418970482362</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24773,10 +24773,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>136.64958867533</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>61.77024252613235</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I30" t="n">
         <v>65.50479675552441</v>
@@ -24806,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>57.07339698405354</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>35.81287827175942</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2285509980701</v>
+        <v>167.4092130247883</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>157.0547409226243</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>137.955174638333</v>
       </c>
       <c r="J31" t="n">
         <v>52.22830032617343</v>
@@ -24882,7 +24882,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R31" t="n">
         <v>151.1350615014064</v>
@@ -24891,19 +24891,19 @@
         <v>213.8779974765521</v>
       </c>
       <c r="T31" t="n">
-        <v>225.4598605480533</v>
+        <v>177.9845675425499</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,19 +24919,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>326.1924309016296</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>68.39969274597631</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S32" t="n">
         <v>179.4658614532381</v>
@@ -24973,13 +24973,13 @@
         <v>217.4184586216305</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2418970482362</v>
+        <v>224.5107877757002</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>167.4058462225971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>167.4092130247883</v>
       </c>
       <c r="H34" t="n">
-        <v>157.0547409226243</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>137.955174638333</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>52.22830032617343</v>
@@ -25119,13 +25119,13 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R34" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>213.8779974765521</v>
+        <v>74.12274156220286</v>
       </c>
       <c r="T34" t="n">
         <v>225.4598605480533</v>
@@ -25137,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>144.9170741010105</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25162,7 +25162,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>326.1924309016296</v>
       </c>
       <c r="I35" t="n">
-        <v>158.9427111255923</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>41.6685834734403</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T35" t="n">
         <v>217.4184586216305</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25253,7 +25253,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>65.50479675552441</v>
+        <v>58.24193217968198</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>39.626077405407</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>158.7937537960548</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25301,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>167.4092130247883</v>
       </c>
       <c r="H37" t="n">
-        <v>138.1826998008615</v>
+        <v>149.5801662719572</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>52.22830032617343</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,10 +25356,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>151.1350615014064</v>
       </c>
       <c r="S37" t="n">
         <v>213.8779974765521</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>414.005789270132</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>326.1924309016296</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>68.3996927459763</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>98.5581558934384</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2418970482362</v>
       </c>
       <c r="V38" t="n">
-        <v>220.8074281330679</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25469,7 +25469,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>66.55691803568394</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>31.88664755159492</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>65.50479675552441</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>197.3677099213027</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>106.707894034828</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.4092130247883</v>
@@ -25593,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.44704598407326</v>
+        <v>37.44704598407325</v>
       </c>
       <c r="R40" t="n">
         <v>151.1350615014064</v>
@@ -25605,7 +25605,7 @@
         <v>225.4598605480533</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2872966473816</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>178.2343623835338</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,13 +25642,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>41.18966637770666</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>133.7441830823898</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25712,22 +25712,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>92.88627525581317</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25769,7 +25769,7 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>116.479562392348</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -25785,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>106.1644009308525</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4092130247883</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>157.0547409226243</v>
@@ -25833,13 +25833,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R43" t="n">
-        <v>151.1350615014064</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>225.4598605480533</v>
+        <v>171.9818995740872</v>
       </c>
       <c r="U43" t="n">
         <v>286.2872966473816</v>
@@ -25848,10 +25848,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25867,10 +25867,10 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>306.5161704693941</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.005789270132</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>326.1924309016296</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>160.4752923549255</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>179.4658614532381</v>
       </c>
       <c r="T44" t="n">
         <v>217.4184586216305</v>
@@ -25924,16 +25924,16 @@
         <v>251.2418970482362</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>320.6879444444513</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25952,19 +25952,19 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>118.8554155636029</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.5335559456492</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>65.50479675552441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>92.8862752558129</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26025,16 +26025,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>21.81707180962766</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.4092130247883</v>
@@ -26070,13 +26070,13 @@
         <v>37.44704598407325</v>
       </c>
       <c r="R46" t="n">
-        <v>151.1350615014064</v>
+        <v>4.572686549298851</v>
       </c>
       <c r="S46" t="n">
-        <v>213.8779974765521</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>225.4598605480533</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.2872966473816</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>622862.4823803077</v>
+        <v>622862.4823803076</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>622862.4823803076</v>
+        <v>622862.4823803077</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>622862.4823803077</v>
+        <v>622862.4823803076</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>622862.4823803077</v>
+        <v>622862.4823803076</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>622862.4823803077</v>
+        <v>622862.4823803076</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>622862.4823803076</v>
+        <v>622862.4823803077</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>622862.4823803077</v>
+        <v>622862.4823803079</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>622862.4823803076</v>
+        <v>622862.4823803077</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>622862.4823803077</v>
+        <v>622862.4823803076</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117842</v>
       </c>
       <c r="D2" t="n">
         <v>533677.1504117841</v>
       </c>
       <c r="E2" t="n">
-        <v>352485.1114947453</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="F2" t="n">
         <v>352485.1114947453</v>
       </c>
       <c r="G2" t="n">
+        <v>352485.1114947454</v>
+      </c>
+      <c r="H2" t="n">
         <v>352485.1114947453</v>
-      </c>
-      <c r="H2" t="n">
-        <v>352485.1114947454</v>
       </c>
       <c r="I2" t="n">
         <v>352485.1114947452</v>
       </c>
       <c r="J2" t="n">
+        <v>352485.1114947453</v>
+      </c>
+      <c r="K2" t="n">
         <v>352485.1114947454</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>352485.1114947452</v>
-      </c>
-      <c r="L2" t="n">
-        <v>352485.1114947451</v>
       </c>
       <c r="M2" t="n">
         <v>352485.1114947452</v>
@@ -26352,7 +26352,7 @@
         <v>352485.1114947452</v>
       </c>
       <c r="O2" t="n">
-        <v>352485.1114947452</v>
+        <v>352485.1114947454</v>
       </c>
       <c r="P2" t="n">
         <v>352485.1114947454</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>369435.2991327801</v>
+        <v>369435.2991327802</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26502,7 +26502,7 @@
         <v>44136.03802033842</v>
       </c>
       <c r="M5" t="n">
-        <v>44136.03802033842</v>
+        <v>44136.03802033843</v>
       </c>
       <c r="N5" t="n">
         <v>44136.03802033842</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>100398.6542693962</v>
+        <v>100398.654269396</v>
       </c>
       <c r="C6" t="n">
-        <v>181168.0858009437</v>
+        <v>181168.0858009438</v>
       </c>
       <c r="D6" t="n">
         <v>181168.0858009437</v>
       </c>
       <c r="E6" t="n">
-        <v>-87899.15170893278</v>
+        <v>-94868.07628266505</v>
       </c>
       <c r="F6" t="n">
-        <v>281536.1474238473</v>
+        <v>274567.2228501151</v>
       </c>
       <c r="G6" t="n">
-        <v>281536.1474238473</v>
+        <v>274567.2228501152</v>
       </c>
       <c r="H6" t="n">
-        <v>281536.1474238474</v>
+        <v>274567.2228501151</v>
       </c>
       <c r="I6" t="n">
-        <v>281536.1474238473</v>
+        <v>274567.222850115</v>
       </c>
       <c r="J6" t="n">
-        <v>218476.2048247411</v>
+        <v>211507.2802510088</v>
       </c>
       <c r="K6" t="n">
-        <v>281536.1474238473</v>
+        <v>274567.2228501152</v>
       </c>
       <c r="L6" t="n">
-        <v>281536.1474238472</v>
+        <v>274567.222850115</v>
       </c>
       <c r="M6" t="n">
-        <v>189521.9021427542</v>
+        <v>182552.977569022</v>
       </c>
       <c r="N6" t="n">
-        <v>281536.1474238473</v>
+        <v>274567.222850115</v>
       </c>
       <c r="O6" t="n">
-        <v>281536.1474238473</v>
+        <v>274567.2228501152</v>
       </c>
       <c r="P6" t="n">
-        <v>281536.1474238475</v>
+        <v>274567.2228501152</v>
       </c>
     </row>
   </sheetData>
@@ -26822,7 +26822,7 @@
         <v>610.2469066570409</v>
       </c>
       <c r="M4" t="n">
-        <v>610.2469066570409</v>
+        <v>610.246906657041</v>
       </c>
       <c r="N4" t="n">
         <v>610.2469066570409</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>369.2326177793818</v>
+        <v>369.2326177793819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,31 +27378,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>170.5155384328811</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>333.8123701683061</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>37.09737516287214</v>
+        <v>15.18418061884682</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27469,10 +27469,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -27517,7 +27517,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27551,7 +27551,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.9909793584588</v>
+        <v>57.07350359897357</v>
       </c>
       <c r="H4" t="n">
         <v>162.2271725074396</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,7 +27578,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27587,7 +27587,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>93.55107118671071</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -27627,7 +27627,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>337.7589954776852</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,10 +27636,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27678,7 +27678,7 @@
         <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>268.4108542424576</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,10 +27712,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>19.67822014883431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>20.6686947516915</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>155.8535025062293</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27864,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
+        <v>400</v>
+      </c>
+      <c r="G8" t="n">
         <v>349.7082848322977</v>
-      </c>
-      <c r="G8" t="n">
-        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>128.71681180081</v>
@@ -27934,7 +27934,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -27946,13 +27946,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>15.47662119562477</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,10 +27979,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27991,16 +27991,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>117.2220797075721</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>68.60374760888197</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28052,10 +28052,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>271.6861434288851</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H17" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I17" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J17" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K17" t="n">
         <v>164.9766803203078</v>
@@ -32247,7 +32247,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N17" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O17" t="n">
         <v>218.5211886152591</v>
@@ -32259,13 +32259,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R17" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S17" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T17" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U17" t="n">
         <v>0.1037558596002446</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H18" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I18" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J18" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K18" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L18" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M18" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N18" t="n">
         <v>180.479234222958</v>
@@ -32335,10 +32335,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R18" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S18" t="n">
         <v>12.88941730778304</v>
@@ -32347,7 +32347,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,40 +32384,40 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H19" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I19" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J19" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K19" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L19" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M19" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N19" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O19" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P19" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R19" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S19" t="n">
         <v>10.13860056042011</v>
@@ -32426,7 +32426,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H20" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I20" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J20" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K20" t="n">
         <v>164.9766803203078</v>
@@ -32484,7 +32484,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N20" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O20" t="n">
         <v>218.5211886152591</v>
@@ -32496,13 +32496,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R20" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S20" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T20" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U20" t="n">
         <v>0.1037558596002446</v>
@@ -32542,25 +32542,25 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H21" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I21" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J21" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K21" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L21" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M21" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N21" t="n">
         <v>180.479234222958</v>
@@ -32572,10 +32572,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R21" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S21" t="n">
         <v>12.88941730778304</v>
@@ -32584,7 +32584,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,40 +32621,40 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H22" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I22" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J22" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K22" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L22" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M22" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N22" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O22" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P22" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R22" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S22" t="n">
         <v>10.13860056042011</v>
@@ -32663,7 +32663,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H26" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I26" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J26" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K26" t="n">
         <v>164.9766803203078</v>
@@ -32958,7 +32958,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N26" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O26" t="n">
         <v>218.5211886152591</v>
@@ -32970,13 +32970,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R26" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S26" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T26" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U26" t="n">
         <v>0.1037558596002446</v>
@@ -33016,25 +33016,25 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H27" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I27" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J27" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K27" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L27" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M27" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N27" t="n">
         <v>180.479234222958</v>
@@ -33046,10 +33046,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R27" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S27" t="n">
         <v>12.88941730778304</v>
@@ -33058,7 +33058,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,40 +33095,40 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H28" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I28" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J28" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K28" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L28" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M28" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N28" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O28" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P28" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R28" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S28" t="n">
         <v>10.13860056042011</v>
@@ -33137,7 +33137,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H29" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I29" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J29" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K29" t="n">
         <v>164.9766803203078</v>
@@ -33195,7 +33195,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N29" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O29" t="n">
         <v>218.5211886152591</v>
@@ -33207,13 +33207,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R29" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S29" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T29" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U29" t="n">
         <v>0.1037558596002446</v>
@@ -33253,25 +33253,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H30" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I30" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J30" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K30" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L30" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M30" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N30" t="n">
         <v>180.479234222958</v>
@@ -33283,10 +33283,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R30" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S30" t="n">
         <v>12.88941730778304</v>
@@ -33295,7 +33295,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,40 +33332,40 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H31" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I31" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J31" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K31" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L31" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M31" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N31" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O31" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P31" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R31" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S31" t="n">
         <v>10.13860056042011</v>
@@ -33374,7 +33374,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H32" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I32" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J32" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K32" t="n">
         <v>164.9766803203078</v>
@@ -33432,7 +33432,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N32" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O32" t="n">
         <v>218.5211886152591</v>
@@ -33444,13 +33444,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R32" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S32" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T32" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U32" t="n">
         <v>0.1037558596002446</v>
@@ -33490,25 +33490,25 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H33" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I33" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J33" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K33" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L33" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M33" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N33" t="n">
         <v>180.479234222958</v>
@@ -33520,10 +33520,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R33" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S33" t="n">
         <v>12.88941730778304</v>
@@ -33532,7 +33532,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,40 +33569,40 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H34" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I34" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J34" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K34" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L34" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M34" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N34" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O34" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P34" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R34" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S34" t="n">
         <v>10.13860056042011</v>
@@ -33611,7 +33611,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H35" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I35" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J35" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K35" t="n">
         <v>164.9766803203078</v>
@@ -33669,7 +33669,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N35" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O35" t="n">
         <v>218.5211886152591</v>
@@ -33681,13 +33681,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R35" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S35" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T35" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U35" t="n">
         <v>0.1037558596002446</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H36" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I36" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J36" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K36" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L36" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M36" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N36" t="n">
         <v>180.479234222958</v>
@@ -33757,10 +33757,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R36" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S36" t="n">
         <v>12.88941730778304</v>
@@ -33769,7 +33769,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,40 +33806,40 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H37" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I37" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J37" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K37" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L37" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M37" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N37" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O37" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P37" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R37" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S37" t="n">
         <v>10.13860056042011</v>
@@ -33848,7 +33848,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.296948245003057</v>
+        <v>1.296948245003058</v>
       </c>
       <c r="H38" t="n">
         <v>13.28237121413757</v>
       </c>
       <c r="I38" t="n">
-        <v>50.00059721548042</v>
+        <v>50.00059721548043</v>
       </c>
       <c r="J38" t="n">
-        <v>110.0768611093283</v>
+        <v>110.0768611093284</v>
       </c>
       <c r="K38" t="n">
         <v>164.9766803203078</v>
@@ -33906,7 +33906,7 @@
         <v>227.7327635253933</v>
       </c>
       <c r="N38" t="n">
-        <v>231.4177177265082</v>
+        <v>231.4177177265083</v>
       </c>
       <c r="O38" t="n">
         <v>218.5211886152591</v>
@@ -33918,13 +33918,13 @@
         <v>140.055819792574</v>
       </c>
       <c r="R38" t="n">
-        <v>81.46942519517337</v>
+        <v>81.46942519517339</v>
       </c>
       <c r="S38" t="n">
         <v>29.5542081330072</v>
       </c>
       <c r="T38" t="n">
-        <v>5.677390942500887</v>
+        <v>5.677390942500888</v>
       </c>
       <c r="U38" t="n">
         <v>0.1037558596002446</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6939284878806459</v>
+        <v>0.693928487880646</v>
       </c>
       <c r="H39" t="n">
-        <v>6.701888290847291</v>
+        <v>6.701888290847292</v>
       </c>
       <c r="I39" t="n">
         <v>23.89183609589066</v>
       </c>
       <c r="J39" t="n">
-        <v>65.56102437472366</v>
+        <v>65.56102437472367</v>
       </c>
       <c r="K39" t="n">
-        <v>112.0542330627269</v>
+        <v>112.054233062727</v>
       </c>
       <c r="L39" t="n">
         <v>150.670744704085</v>
       </c>
       <c r="M39" t="n">
-        <v>175.8256523897583</v>
+        <v>175.8256523897584</v>
       </c>
       <c r="N39" t="n">
         <v>180.479234222958</v>
@@ -33994,10 +33994,10 @@
         <v>132.5099057252086</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.57936276876455</v>
+        <v>88.57936276876457</v>
       </c>
       <c r="R39" t="n">
-        <v>43.08443716858959</v>
+        <v>43.0844371685896</v>
       </c>
       <c r="S39" t="n">
         <v>12.88941730778304</v>
@@ -34006,7 +34006,7 @@
         <v>2.797018773518918</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04565318999214777</v>
+        <v>0.04565318999214778</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,40 +34043,40 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5817663336704292</v>
+        <v>0.5817663336704293</v>
       </c>
       <c r="H40" t="n">
-        <v>5.172431584815274</v>
+        <v>5.172431584815275</v>
       </c>
       <c r="I40" t="n">
         <v>17.49530028892528</v>
       </c>
       <c r="J40" t="n">
-        <v>41.13087979049934</v>
+        <v>41.13087979049935</v>
       </c>
       <c r="K40" t="n">
-        <v>67.59067040280075</v>
+        <v>67.59067040280077</v>
       </c>
       <c r="L40" t="n">
-        <v>86.49278746223818</v>
+        <v>86.4927874622382</v>
       </c>
       <c r="M40" t="n">
-        <v>91.19451719526555</v>
+        <v>91.19451719526556</v>
       </c>
       <c r="N40" t="n">
-        <v>89.02611540613037</v>
+        <v>89.02611540613039</v>
       </c>
       <c r="O40" t="n">
-        <v>82.23002687188942</v>
+        <v>82.23002687188944</v>
       </c>
       <c r="P40" t="n">
-        <v>70.3619936650126</v>
+        <v>70.36199366501262</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.71499726762113</v>
+        <v>48.71499726762114</v>
       </c>
       <c r="R40" t="n">
-        <v>26.15832987576311</v>
+        <v>26.15832987576312</v>
       </c>
       <c r="S40" t="n">
         <v>10.13860056042011</v>
@@ -34085,7 +34085,7 @@
         <v>2.485728880228197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03173270910929617</v>
+        <v>0.03173270910929618</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>232.285965523585</v>
@@ -35026,16 +35026,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q9" t="n">
         <v>70.09551364982758</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>238.6780311009466</v>
+        <v>113.4554389912687</v>
       </c>
       <c r="L12" t="n">
         <v>382.95671022767</v>
@@ -35503,13 +35503,13 @@
         <v>528.4798964831782</v>
       </c>
       <c r="O12" t="n">
-        <v>385.0071659263357</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P12" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>64.81443304846582</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>238.6780311009466</v>
@@ -35743,10 +35743,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P15" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K17" t="n">
         <v>269.032241846492</v>
@@ -35892,7 +35892,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M17" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N17" t="n">
         <v>439.3515785419015</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L18" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M18" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N18" t="n">
         <v>528.4798964831782</v>
@@ -35980,10 +35980,10 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P18" t="n">
-        <v>285.636118211264</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,13 +36044,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L19" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M19" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N19" t="n">
         <v>133.158287785359</v>
@@ -36059,7 +36059,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P19" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K20" t="n">
         <v>269.032241846492</v>
@@ -36129,7 +36129,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M20" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N20" t="n">
         <v>439.3515785419015</v>
@@ -36202,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>113.4554389912688</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L21" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M21" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N21" t="n">
         <v>528.4798964831782</v>
@@ -36220,7 +36220,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q21" t="n">
-        <v>158.6748764185921</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,13 +36281,13 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L22" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M22" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N22" t="n">
         <v>133.158287785359</v>
@@ -36296,7 +36296,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P22" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>64.81443304846582</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K24" t="n">
         <v>238.6780311009466</v>
@@ -36454,7 +36454,7 @@
         <v>416.3693146658877</v>
       </c>
       <c r="P24" t="n">
-        <v>285.6361182112636</v>
+        <v>316.9982669508155</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K26" t="n">
         <v>269.032241846492</v>
@@ -36603,7 +36603,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M26" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N26" t="n">
         <v>439.3515785419015</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>64.8144330484658</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L27" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M27" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N27" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O27" t="n">
-        <v>385.0071659263362</v>
+        <v>416.3693146658877</v>
       </c>
       <c r="P27" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>33.45228430891411</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36755,13 +36755,13 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L28" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M28" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N28" t="n">
         <v>133.158287785359</v>
@@ -36770,7 +36770,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P28" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K29" t="n">
         <v>269.032241846492</v>
@@ -36840,7 +36840,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M29" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N29" t="n">
         <v>439.3515785419015</v>
@@ -36910,16 +36910,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>33.45228430891401</v>
       </c>
       <c r="K30" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L30" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M30" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N30" t="n">
         <v>528.4798964831782</v>
@@ -36931,7 +36931,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.45228430891411</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,13 +36992,13 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L31" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M31" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N31" t="n">
         <v>133.158287785359</v>
@@ -37007,7 +37007,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P31" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K32" t="n">
         <v>269.032241846492</v>
@@ -37077,7 +37077,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M32" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N32" t="n">
         <v>439.3515785419015</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K33" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L33" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M33" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N33" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O33" t="n">
         <v>416.3693146658877</v>
@@ -37168,7 +37168,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q33" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,13 +37229,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L34" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M34" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N34" t="n">
         <v>133.158287785359</v>
@@ -37244,7 +37244,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P34" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37305,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K35" t="n">
         <v>269.032241846492</v>
@@ -37314,7 +37314,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M35" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N35" t="n">
         <v>439.3515785419015</v>
@@ -37384,19 +37384,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>64.8144330484658</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K36" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L36" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M36" t="n">
-        <v>309.3596570595964</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N36" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O36" t="n">
         <v>416.3693146658877</v>
@@ -37466,13 +37466,13 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L37" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M37" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N37" t="n">
         <v>133.158287785359</v>
@@ -37481,7 +37481,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P37" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>98.12757175471583</v>
+        <v>98.12757175471585</v>
       </c>
       <c r="K38" t="n">
         <v>269.032241846492</v>
@@ -37551,7 +37551,7 @@
         <v>386.5629597537834</v>
       </c>
       <c r="M38" t="n">
-        <v>446.900063790953</v>
+        <v>446.9000637909531</v>
       </c>
       <c r="N38" t="n">
         <v>439.3515785419015</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K39" t="n">
-        <v>238.6780311009465</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L39" t="n">
         <v>382.95671022767</v>
       </c>
       <c r="M39" t="n">
-        <v>499.3966822177399</v>
+        <v>499.39668221774</v>
       </c>
       <c r="N39" t="n">
         <v>528.4798964831782</v>
       </c>
       <c r="O39" t="n">
-        <v>416.3693146658877</v>
+        <v>226.3322895077438</v>
       </c>
       <c r="P39" t="n">
         <v>316.9982669508155</v>
       </c>
       <c r="Q39" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,13 +37703,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.3211785769179</v>
+        <v>45.32117857691792</v>
       </c>
       <c r="L40" t="n">
         <v>114.0828127225543</v>
       </c>
       <c r="M40" t="n">
-        <v>130.7783941571061</v>
+        <v>130.7783941571062</v>
       </c>
       <c r="N40" t="n">
         <v>133.158287785359</v>
@@ -37718,7 +37718,7 @@
         <v>106.8151547859291</v>
       </c>
       <c r="P40" t="n">
-        <v>67.64055292990609</v>
+        <v>67.64055292990611</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>64.81443304846582</v>
       </c>
       <c r="K42" t="n">
         <v>238.6780311009466</v>
@@ -37870,7 +37870,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N42" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O42" t="n">
         <v>416.3693146658877</v>
@@ -37879,7 +37879,7 @@
         <v>316.9982669508155</v>
       </c>
       <c r="Q42" t="n">
-        <v>33.45228430891411</v>
+        <v>158.6748764185921</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38098,7 +38098,7 @@
         <v>64.81443304846582</v>
       </c>
       <c r="K45" t="n">
-        <v>48.64100594280286</v>
+        <v>238.6780311009466</v>
       </c>
       <c r="L45" t="n">
         <v>382.95671022767</v>
@@ -38107,7 +38107,7 @@
         <v>499.39668221774</v>
       </c>
       <c r="N45" t="n">
-        <v>528.4798964831782</v>
+        <v>338.4428713250345</v>
       </c>
       <c r="O45" t="n">
         <v>416.3693146658877</v>
